--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C646789-56B7-46BE-8950-F24DB0AB2323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A882C71A-DFFB-42B5-955B-7415CD2F5D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52065" yWindow="2415" windowWidth="28800" windowHeight="15345" tabRatio="776" activeTab="1" xr2:uid="{F172D3B5-3C5B-49C9-BC92-AB3F251155CB}"/>
+    <workbookView xWindow="49905" yWindow="5040" windowWidth="57600" windowHeight="15345" tabRatio="776" activeTab="1" xr2:uid="{F172D3B5-3C5B-49C9-BC92-AB3F251155CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="243">
   <si>
     <t>~BookRegions_Map</t>
   </si>
@@ -718,9 +718,6 @@
     <t>~TFM_INS-TXT</t>
   </si>
   <si>
-    <t>2024-2065-p6</t>
-  </si>
-  <si>
     <t>2024-2030-p3</t>
   </si>
   <si>
@@ -751,7 +748,22 @@
     <t>2024-2100-p6</t>
   </si>
   <si>
-    <t>2024-2100-p7</t>
+    <t>2024-2030-ey</t>
+  </si>
+  <si>
+    <t>2024-2026-ey</t>
+  </si>
+  <si>
+    <t>2024-2100-p8</t>
+  </si>
+  <si>
+    <t>2024-2060-p6</t>
+  </si>
+  <si>
+    <t>2024-2060-p7</t>
+  </si>
+  <si>
+    <t>2024-2060-Sp5Yr</t>
   </si>
 </sst>
 </file>
@@ -3047,10 +3059,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4927D81C-09B5-44A7-B07D-9E155CE9E994}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:X80"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,13 +3074,15 @@
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.5703125" customWidth="1"/>
-    <col min="14" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="22" max="23" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
@@ -3080,7 +3094,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2024</v>
       </c>
@@ -3094,61 +3108,73 @@
         <v>220</v>
       </c>
       <c r="G2" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>218</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="L2" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y2" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="U2" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="Z2" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="AA2" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="AB2" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>74</v>
       </c>
@@ -3156,7 +3182,7 @@
       <c r="F3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>75</v>
       </c>
@@ -3220,8 +3246,20 @@
       <c r="X4">
         <v>2024</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>2024</v>
+      </c>
+      <c r="Z4">
+        <v>2024</v>
+      </c>
+      <c r="AA4">
+        <v>2024</v>
+      </c>
+      <c r="AB4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>75</v>
       </c>
@@ -3283,8 +3321,20 @@
       <c r="X5">
         <v>2025</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>2025</v>
+      </c>
+      <c r="Z5">
+        <v>2025</v>
+      </c>
+      <c r="AA5">
+        <v>2025</v>
+      </c>
+      <c r="AB5">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>75</v>
       </c>
@@ -3321,36 +3371,49 @@
         <v>2030</v>
       </c>
       <c r="Q6">
-        <f>Q5+25</f>
+        <v>2030</v>
+      </c>
+      <c r="R6">
+        <f>R5+25</f>
         <v>2050</v>
       </c>
-      <c r="R6">
-        <f>R5+20</f>
+      <c r="S6">
+        <f>S5+20</f>
         <v>2045</v>
       </c>
-      <c r="S6">
-        <f>S5+10</f>
+      <c r="T6">
+        <f>T5+10</f>
         <v>2035</v>
       </c>
-      <c r="T6">
-        <f>T5+5</f>
+      <c r="U6">
+        <f>U5+5</f>
         <v>2030</v>
       </c>
-      <c r="U6">
-        <f>U5+4</f>
+      <c r="V6">
+        <f>V5+5</f>
+        <v>2030</v>
+      </c>
+      <c r="W6">
+        <f>W5+4</f>
         <v>2029</v>
-      </c>
-      <c r="V6">
-        <v>2026</v>
-      </c>
-      <c r="W6">
-        <v>2026</v>
       </c>
       <c r="X6">
         <v>2026</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>2026</v>
+      </c>
+      <c r="Z6">
+        <v>2026</v>
+      </c>
+      <c r="AA6">
+        <v>2026</v>
+      </c>
+      <c r="AB6">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>75</v>
       </c>
@@ -3372,45 +3435,55 @@
         <v>2035</v>
       </c>
       <c r="N7">
+        <v>2035</v>
+      </c>
+      <c r="O7">
         <v>2040</v>
-      </c>
-      <c r="O7">
-        <v>2035</v>
       </c>
       <c r="P7">
         <v>2035</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q8" si="0">Q6+25</f>
+        <v>2035</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:R8" si="0">R6+25</f>
         <v>2075</v>
       </c>
-      <c r="R7">
-        <f t="shared" ref="R7" si="1">R6+20</f>
+      <c r="S7">
+        <f t="shared" ref="S7" si="1">S6+20</f>
         <v>2065</v>
       </c>
-      <c r="S7">
-        <f t="shared" ref="S7:S9" si="2">S6+10</f>
+      <c r="T7">
+        <f t="shared" ref="T7:T9" si="2">T6+10</f>
         <v>2045</v>
       </c>
-      <c r="T7">
-        <f t="shared" ref="T7:T17" si="3">T6+5</f>
+      <c r="U7">
+        <f t="shared" ref="U7:V17" si="3">U6+5</f>
         <v>2035</v>
       </c>
-      <c r="U7">
-        <f t="shared" ref="U7:U23" si="4">U6+4</f>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>2035</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W23" si="4">W6+4</f>
         <v>2033</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>2027</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>2027</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>2027</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>75</v>
       </c>
@@ -3429,51 +3502,61 @@
         <v>2040</v>
       </c>
       <c r="N8">
+        <v>2040</v>
+      </c>
+      <c r="O8">
         <v>2050</v>
-      </c>
-      <c r="O8">
-        <v>2040</v>
       </c>
       <c r="P8">
         <v>2040</v>
       </c>
       <c r="Q8">
+        <v>2040</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2085</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="2"/>
         <v>2055</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-      <c r="U8">
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>2040</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="4"/>
         <v>2037</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>2028</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>2028</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>2028</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="K9">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="L9">
         <v>2100</v>
@@ -3482,992 +3565,1023 @@
         <v>2050</v>
       </c>
       <c r="N9">
+        <v>2050</v>
+      </c>
+      <c r="O9">
         <v>2060</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2050</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2045</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2100</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="2"/>
         <v>2065</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="3"/>
         <v>2045</v>
       </c>
-      <c r="U9">
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>2045</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="4"/>
         <v>2041</v>
       </c>
-      <c r="V9">
+      <c r="Y9">
         <v>2029</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <v>2029</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>2029</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="M10">
-        <v>2100</v>
+        <v>2060</v>
       </c>
       <c r="N10">
+        <v>2060</v>
+      </c>
+      <c r="O10">
         <v>2070</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2060</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2050</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2075</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="3"/>
         <v>2050</v>
       </c>
-      <c r="U10">
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>2050</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="4"/>
         <v>2045</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <v>2030</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>2030</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <v>2030</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="N11">
+        <v>2100</v>
+      </c>
+      <c r="O11">
         <v>2080</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2070</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2055</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2085</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="3"/>
         <v>2055</v>
       </c>
-      <c r="U11">
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>2055</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="4"/>
         <v>2049</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>2031</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>2031</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>2031</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="N12">
+      <c r="O12">
         <v>2090</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2080</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2060</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2095</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="3"/>
         <v>2060</v>
       </c>
-      <c r="U12">
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>2060</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="4"/>
         <v>2053</v>
       </c>
-      <c r="V12">
+      <c r="Z12">
         <v>2032</v>
       </c>
-      <c r="W12">
+      <c r="AA12">
         <v>2032</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>2032</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="N13">
+      <c r="O13">
         <v>2100</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2090</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2065</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2100</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <f t="shared" si="3"/>
         <v>2065</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f t="shared" si="4"/>
         <v>2057</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>2033</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>2033</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="O14">
+      <c r="P14">
         <v>2100</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2070</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>2070</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f t="shared" si="4"/>
         <v>2061</v>
       </c>
-      <c r="W14">
+      <c r="AA14">
         <v>2034</v>
       </c>
-      <c r="X14">
+      <c r="AB14">
         <v>2034</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>75</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="P15">
+      <c r="Q15">
         <v>2075</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <f t="shared" si="3"/>
         <v>2075</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f t="shared" si="4"/>
         <v>2065</v>
       </c>
-      <c r="W15">
+      <c r="AA15">
         <v>2035</v>
       </c>
-      <c r="X15">
+      <c r="AB15">
         <v>2035</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>75</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="P16">
+      <c r="Q16">
         <v>2080</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <f t="shared" si="3"/>
         <v>2080</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f t="shared" si="4"/>
         <v>2069</v>
       </c>
-      <c r="W16">
+      <c r="AA16">
         <v>2036</v>
       </c>
-      <c r="X16">
+      <c r="AB16">
         <v>2036</v>
       </c>
     </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>75</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="P17">
+      <c r="Q17">
         <v>2085</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <f t="shared" si="3"/>
         <v>2085</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <f t="shared" si="4"/>
         <v>2073</v>
       </c>
-      <c r="W17">
+      <c r="AA17">
         <v>2037</v>
       </c>
-      <c r="X17">
+      <c r="AB17">
         <v>2037</v>
       </c>
     </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>75</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="P18">
+      <c r="Q18">
         <v>2090</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>2090</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <f t="shared" si="4"/>
         <v>2077</v>
       </c>
-      <c r="W18">
+      <c r="AA18">
         <v>2038</v>
       </c>
-      <c r="X18">
+      <c r="AB18">
         <v>2038</v>
       </c>
     </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="P19">
+      <c r="Q19">
         <v>2095</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>2095</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <f t="shared" si="4"/>
         <v>2081</v>
       </c>
-      <c r="W19">
+      <c r="AA19">
         <v>2039</v>
       </c>
-      <c r="X19">
+      <c r="AB19">
         <v>2039</v>
       </c>
     </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>75</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="P20">
+      <c r="Q20">
         <v>2100</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>2100</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
+      <c r="W20">
+        <f>W19+4</f>
         <v>2085</v>
       </c>
-      <c r="W20">
+      <c r="AA20">
         <v>2040</v>
       </c>
-      <c r="X20">
+      <c r="AB20">
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="U21">
+      <c r="W21">
         <f t="shared" si="4"/>
         <v>2089</v>
       </c>
-      <c r="W21">
+      <c r="AA21">
         <v>2041</v>
       </c>
-      <c r="X21">
+      <c r="AB21">
         <v>2041</v>
       </c>
     </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="U22">
+      <c r="W22">
         <f t="shared" si="4"/>
         <v>2093</v>
       </c>
-      <c r="W22">
+      <c r="AA22">
         <v>2042</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>2042</v>
       </c>
     </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="U23">
+      <c r="W23">
         <f t="shared" si="4"/>
         <v>2097</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>2043</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>2043</v>
       </c>
     </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="U24">
+      <c r="W24">
         <v>2100</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>2044</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>2044</v>
       </c>
     </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="W25">
+      <c r="AA25">
         <v>2045</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>2045</v>
       </c>
     </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="W26">
+      <c r="AA26">
         <v>2046</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>2046</v>
       </c>
     </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="W27">
+      <c r="AA27">
         <v>2047</v>
       </c>
-      <c r="X27">
+      <c r="AB27">
         <v>2047</v>
       </c>
     </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>75</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="W28">
+      <c r="AA28">
         <v>2048</v>
       </c>
-      <c r="X28">
+      <c r="AB28">
         <v>2048</v>
       </c>
     </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="W29">
+      <c r="AA29">
         <v>2049</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>2049</v>
       </c>
     </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="W30">
+      <c r="AA30">
         <v>2050</v>
       </c>
-      <c r="X30">
+      <c r="AB30">
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="X31">
+      <c r="AB31">
         <v>2051</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="X32">
+      <c r="AB32">
         <v>2052</v>
       </c>
     </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>75</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="X33">
+      <c r="AB33">
         <v>2053</v>
       </c>
     </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>75</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="X34">
+      <c r="AB34">
         <v>2054</v>
       </c>
     </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>75</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="X35">
+      <c r="AB35">
         <v>2055</v>
       </c>
     </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>75</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="X36">
+      <c r="AB36">
         <v>2056</v>
       </c>
     </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="X37">
+      <c r="AB37">
         <v>2057</v>
       </c>
     </row>
-    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="X38">
+      <c r="AB38">
         <v>2058</v>
       </c>
     </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="X39">
+      <c r="AB39">
         <v>2059</v>
       </c>
     </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>75</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="X40">
+      <c r="AB40">
         <v>2060</v>
       </c>
     </row>
-    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>75</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="X41">
+      <c r="AB41">
         <v>2061</v>
       </c>
     </row>
-    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>75</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="X42">
+      <c r="AB42">
         <v>2062</v>
       </c>
     </row>
-    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>75</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="X43">
+      <c r="AB43">
         <v>2063</v>
       </c>
     </row>
-    <row r="44" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>75</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="X44">
+      <c r="AB44">
         <v>2064</v>
       </c>
     </row>
-    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>75</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="X45">
+      <c r="AB45">
         <v>2065</v>
       </c>
     </row>
-    <row r="46" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>75</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="X46">
+      <c r="AB46">
         <v>2066</v>
       </c>
     </row>
-    <row r="47" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>75</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="X47">
+      <c r="AB47">
         <v>2067</v>
       </c>
     </row>
-    <row r="48" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>75</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="X48">
+      <c r="AB48">
         <v>2068</v>
       </c>
     </row>
-    <row r="49" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>75</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="X49">
+      <c r="AB49">
         <v>2069</v>
       </c>
     </row>
-    <row r="50" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>75</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="X50">
+      <c r="AB50">
         <v>2070</v>
       </c>
     </row>
-    <row r="51" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>75</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="X51">
+      <c r="AB51">
         <v>2071</v>
       </c>
     </row>
-    <row r="52" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>75</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="X52">
+      <c r="AB52">
         <v>2072</v>
       </c>
     </row>
-    <row r="53" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>75</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="X53">
+      <c r="AB53">
         <v>2073</v>
       </c>
     </row>
-    <row r="54" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>75</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="X54">
+      <c r="AB54">
         <v>2074</v>
       </c>
     </row>
-    <row r="55" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>75</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="X55">
+      <c r="AB55">
         <v>2075</v>
       </c>
     </row>
-    <row r="56" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>75</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="X56">
+      <c r="AB56">
         <v>2076</v>
       </c>
     </row>
-    <row r="57" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>75</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="X57">
+      <c r="AB57">
         <v>2077</v>
       </c>
     </row>
-    <row r="58" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>75</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="X58">
+      <c r="AB58">
         <v>2078</v>
       </c>
     </row>
-    <row r="59" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>75</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="X59">
+      <c r="AB59">
         <v>2079</v>
       </c>
     </row>
-    <row r="60" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>75</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="X60">
+      <c r="AB60">
         <v>2080</v>
       </c>
     </row>
-    <row r="61" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>75</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="X61">
+      <c r="AB61">
         <v>2081</v>
       </c>
     </row>
-    <row r="62" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>75</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="X62">
+      <c r="AB62">
         <v>2082</v>
       </c>
     </row>
-    <row r="63" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>75</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="X63">
+      <c r="AB63">
         <v>2083</v>
       </c>
     </row>
-    <row r="64" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>75</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="X64">
+      <c r="AB64">
         <v>2084</v>
       </c>
     </row>
-    <row r="65" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>75</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="X65">
+      <c r="AB65">
         <v>2085</v>
       </c>
     </row>
-    <row r="66" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>75</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="X66">
+      <c r="AB66">
         <v>2086</v>
       </c>
     </row>
-    <row r="67" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>75</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="X67">
+      <c r="AB67">
         <v>2087</v>
       </c>
     </row>
-    <row r="68" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="X68">
+      <c r="AB68">
         <v>2088</v>
       </c>
     </row>
-    <row r="69" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>75</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="X69">
+      <c r="AB69">
         <v>2089</v>
       </c>
     </row>
-    <row r="70" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="X70">
+      <c r="AB70">
         <v>2090</v>
       </c>
     </row>
-    <row r="71" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>75</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="X71">
+      <c r="AB71">
         <v>2091</v>
       </c>
     </row>
-    <row r="72" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>75</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="X72">
+      <c r="AB72">
         <v>2092</v>
       </c>
     </row>
-    <row r="73" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>75</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="X73">
+      <c r="AB73">
         <v>2093</v>
       </c>
     </row>
-    <row r="74" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>75</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="X74">
+      <c r="AB74">
         <v>2094</v>
       </c>
     </row>
-    <row r="75" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>75</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="X75">
+      <c r="AB75">
         <v>2095</v>
       </c>
     </row>
-    <row r="76" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>75</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="X76">
+      <c r="AB76">
         <v>2096</v>
       </c>
     </row>
-    <row r="77" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>75</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="X77">
+      <c r="AB77">
         <v>2097</v>
       </c>
     </row>
-    <row r="78" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>75</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="X78">
+      <c r="AB78">
         <v>2098</v>
       </c>
     </row>
-    <row r="79" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>75</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="X79">
+      <c r="AB79">
         <v>2099</v>
       </c>
     </row>
-    <row r="80" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:28" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>75</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="X80">
+      <c r="AB80">
         <v>2100</v>
       </c>
     </row>
